--- a/Dokumentation/Schaltplan/Pin_Table.xlsx
+++ b/Dokumentation/Schaltplan/Pin_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c87c8da466b3d19/Schule/3bhwii/nwes/Robotersteuerung_HIL/Dokumentation/Schaltplan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="245" documentId="8_{B72DEDD3-97D0-41A8-8A31-5C6930CD75F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F43FD056-508D-47E4-B451-06AA1E0F409D}"/>
+  <xr:revisionPtr revIDLastSave="253" documentId="8_{B72DEDD3-97D0-41A8-8A31-5C6930CD75F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF2A1607-55C2-49DA-98A2-BCDFBB3B7EC4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E6C3CCDA-68BF-401A-9B59-42DFF7EAB6AD}"/>
   </bookViews>
@@ -254,23 +254,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -317,22 +312,26 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F093344A-2DAA-4C33-B7BA-C976F3093CF4}" name="Table2" displayName="Table2" ref="A1:E28" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F093344A-2DAA-4C33-B7BA-C976F3093CF4}" name="Table2" displayName="Table2" ref="A1:E28" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:E28" xr:uid="{F093344A-2DAA-4C33-B7BA-C976F3093CF4}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5A260AD4-F50D-47A6-9B0B-98F1223302F3}" name="Funtion" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{4479F15E-FC6F-4EF0-9AAD-B7D40F574BDE}" name="GPIO Sim" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{797CCD5E-D211-439A-ADE3-FAEA8379BB38}" name="Pin Sim" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{21767E7E-71F6-479F-9D18-87E0A9406845}" name="GPIO Con" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{9A707151-C69F-4610-AC3F-BC59FD3FD6D2}" name="Pin Con" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{5A260AD4-F50D-47A6-9B0B-98F1223302F3}" name="Funtion" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{4479F15E-FC6F-4EF0-9AAD-B7D40F574BDE}" name="GPIO Sim" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{797CCD5E-D211-439A-ADE3-FAEA8379BB38}" name="Pin Sim" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{21767E7E-71F6-479F-9D18-87E0A9406845}" name="GPIO Con" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{9A707151-C69F-4610-AC3F-BC59FD3FD6D2}" name="Pin Con" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{061A411D-82B1-46D5-ACEF-D67D103A7A83}" name="Table4" displayName="Table4" ref="A29:B37" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{061A411D-82B1-46D5-ACEF-D67D103A7A83}" name="Table4" displayName="Table4" ref="A29:B37" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A29:B37" xr:uid="{061A411D-82B1-46D5-ACEF-D67D103A7A83}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{02318698-40F3-458D-9457-B46585B05884}" name="Name"/>
@@ -659,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A990BF-35B0-4ECA-A08A-B3DA1DB99150}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -676,7 +675,7 @@
     <col min="8" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,12 +691,8 @@
       <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -716,7 +711,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -735,7 +730,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -754,7 +749,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -773,7 +768,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -792,7 +787,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -811,7 +806,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -830,7 +825,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -849,7 +844,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,7 +863,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -887,7 +882,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -906,7 +901,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -925,7 +920,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -944,7 +939,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -963,7 +958,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1111,7 +1106,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1121,10 +1116,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E24" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1138,10 +1133,10 @@
         <v>19</v>
       </c>
       <c r="D25" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E25" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1155,10 +1150,10 @@
         <v>19</v>
       </c>
       <c r="D26" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1172,10 +1167,10 @@
         <v>19</v>
       </c>
       <c r="D27" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E27" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1196,60 +1191,60 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+      <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="5"/>
+      <c r="B30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="6"/>
+      <c r="B31" s="4"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="A32" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="7"/>
+      <c r="B32" s="5"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+      <c r="A33" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="8"/>
+      <c r="B33" s="6"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="A34" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="9"/>
+      <c r="B34" s="7"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+      <c r="A35" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="10"/>
+      <c r="B35" s="8"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="3"/>
+      <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="13"/>
+      <c r="B37" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
